--- a/medicine/Mort/Cimetière_ancien_de_Villemomble/Cimetière_ancien_de_Villemomble.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Villemomble/Cimetière_ancien_de_Villemomble.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Villemomble</t>
+          <t>Cimetière_ancien_de_Villemomble</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Villemomble est un des deux cimetières de la commune de Villemomble[1], avec le nouveau cimetière de Villemomble. Il est situé rue d'Avron, à l'angle de la rue de la Carrière, et est contigü au parc de la Garenne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Villemomble est un des deux cimetières de la commune de Villemomble, avec le nouveau cimetière de Villemomble. Il est situé rue d'Avron, à l'angle de la rue de la Carrière, et est contigü au parc de la Garenne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Villemomble</t>
+          <t>Cimetière_ancien_de_Villemomble</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis les temps mérovingiens[2], l'ancien cimetière se situait à proximité du château de Villemomble.
-Ce cimetière est transféré en 1806 au lieu-dit canton du Paradis, rue de la Carrière, au terme d'un échange de terrain avec Nicolas Bourelle de Sivry[3], à la suite du décret impérial sur les sépultures qui ordonne en 1804 que les lieux de sépultures soient déplacés extra-muros.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis les temps mérovingiens, l'ancien cimetière se situait à proximité du château de Villemomble.
+Ce cimetière est transféré en 1806 au lieu-dit canton du Paradis, rue de la Carrière, au terme d'un échange de terrain avec Nicolas Bourelle de Sivry, à la suite du décret impérial sur les sépultures qui ordonne en 1804 que les lieux de sépultures soient déplacés extra-muros.
 Il est agrandi en 1849, en 1859 puis finalement en 1877.
-L'ossuaire date de 1920[4].
+L'ossuaire date de 1920.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Villemomble</t>
+          <t>Cimetière_ancien_de_Villemomble</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tombe d'Alexandre Chatrian.
@@ -553,8 +569,8 @@
 			Sépulture du soldat inconnu de la guerre de 1870.
 			Sépulture de Louis Balthazard de Girardot.
 Louis Balthazard de Girardot (1740-1835), maire de la ville en 1815.
-Son gendre Joseph-Marie Mahé de La Bourdonnais (1779-1840), qui a laissé son nom à l'avenue de la Bourdonnais[5].
-Louis-Constantin Detouche (1810-1889), ancien maire de la ville[6],[7], qui a donné son nom à l'avenue Detouche.
+Son gendre Joseph-Marie Mahé de La Bourdonnais (1779-1840), qui a laissé son nom à l'avenue de la Bourdonnais.
+Louis-Constantin Detouche (1810-1889), ancien maire de la ville qui a donné son nom à l'avenue Detouche.
 Alexandre Chatrian (1826-1890), écrivain.
 L'organiste Michel Boulnois (1907-2008).</t>
         </is>
